--- a/hardware/Project Outputs for MICB/MICB.xlsx
+++ b/hardware/Project Outputs for MICB/MICB.xlsx
@@ -159,10 +159,10 @@
     <t>CONN-TH_P3.50_KF2EDGR-3.5-2P</t>
   </si>
   <si>
-    <t>CR1220</t>
-  </si>
-  <si>
-    <t>微型电池</t>
+    <t>BS-12-B2AA002</t>
+  </si>
+  <si>
+    <t>MYOUNG(美阳) 电池底座 适用电池:CR1220</t>
   </si>
   <si>
     <t>CR1</t>
@@ -240,7 +240,7 @@
     <t>CM F(10*10.2)</t>
   </si>
   <si>
-    <t>LM2576HVT-ADJ</t>
+    <t>LM2576HVS-ADJ</t>
   </si>
   <si>
     <t>DC降压芯片</t>
@@ -255,7 +255,7 @@
     <t>HDR-1X3</t>
   </si>
   <si>
-    <t>3P接插件</t>
+    <t>3P排针</t>
   </si>
   <si>
     <t>JP1, JP2</t>
@@ -354,7 +354,7 @@
     <t>R4, R6, R8, R9, R14, R15, R20, R21, R26, R27, R32, R67, R68, R69, R70, R71, R72</t>
   </si>
   <si>
-    <t>3.48K(1%)</t>
+    <t>3.9K(1%)</t>
   </si>
   <si>
     <t>R5</t>

--- a/hardware/Project Outputs for MICB/MICB.xlsx
+++ b/hardware/Project Outputs for MICB/MICB.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="231">
   <si>
     <t>Comment</t>
   </si>
@@ -36,88 +36,145 @@
     <t>Quantity</t>
   </si>
   <si>
+    <t>20pF/25V</t>
+  </si>
+  <si>
+    <t>无极性贴片电容</t>
+  </si>
+  <si>
+    <t>C1, C2</t>
+  </si>
+  <si>
+    <t>C 0603_L</t>
+  </si>
+  <si>
+    <t>4.3pF/25V</t>
+  </si>
+  <si>
+    <t>C3, C4</t>
+  </si>
+  <si>
     <t>0.1uF/25V</t>
   </si>
   <si>
-    <t>无极性贴片电容</t>
-  </si>
-  <si>
-    <t>C1, C2, C4, C5, C6, C30, C34, C37, C38, C39, C40, C41, C42, C43, C44, C45, C46, C47, C48, C49, C50, C54</t>
-  </si>
-  <si>
-    <t>C 0603_L</t>
+    <t>C5, C6, C8, C9, C10, C13, C52, C56, C59, C60, C61, C62, C63, C64, C65, C66, C67, C68, C69, C70, C71, C78</t>
   </si>
   <si>
     <t>4.7uF/25V</t>
   </si>
   <si>
-    <t>C3, C52</t>
+    <t>C7, C75</t>
+  </si>
+  <si>
+    <t>10nF/25V</t>
+  </si>
+  <si>
+    <t>C11, C73, C76</t>
   </si>
   <si>
     <t>1uF/25V</t>
   </si>
   <si>
-    <t>C7, C23, C24, C26, C27, C32, C36</t>
-  </si>
-  <si>
-    <t>10nF/25V</t>
-  </si>
-  <si>
-    <t>C8, C53, C58</t>
+    <t>C12, C45, C46, C48, C49, C54, C58</t>
+  </si>
+  <si>
+    <t>100nF/10V</t>
+  </si>
+  <si>
+    <t>C14, C22, C28</t>
   </si>
   <si>
     <t>10uF/25V</t>
   </si>
   <si>
-    <t>C9, C11, C12, C13, C14, C15, C16, C17, C18, C29, C33, C51, C55</t>
+    <t>C15, C33, C34, C35, C36, C37, C38, C39, C40, C51, C55, C72, C79</t>
   </si>
   <si>
     <t>22uF/25V</t>
   </si>
   <si>
-    <t>C10, C25, C28</t>
+    <t>C16, C47, C50</t>
+  </si>
+  <si>
+    <t>3.3uF/100V</t>
+  </si>
+  <si>
+    <t>C17, C18, C19, C23, C24, C25</t>
+  </si>
+  <si>
+    <t>C 1210_L</t>
+  </si>
+  <si>
+    <t>36pF/50V</t>
+  </si>
+  <si>
+    <t>C20</t>
+  </si>
+  <si>
+    <t>1.1nF/50V</t>
+  </si>
+  <si>
+    <t>C21</t>
+  </si>
+  <si>
+    <t>43pF/50V</t>
+  </si>
+  <si>
+    <t>C26</t>
+  </si>
+  <si>
+    <t>1.2nF/50V</t>
+  </si>
+  <si>
+    <t>C27</t>
+  </si>
+  <si>
+    <t>10uF/100V</t>
+  </si>
+  <si>
+    <t>C29, C30</t>
+  </si>
+  <si>
+    <t>6.8pF/100V</t>
+  </si>
+  <si>
+    <t>C31</t>
+  </si>
+  <si>
+    <t>1.8nF/50V</t>
+  </si>
+  <si>
+    <t>C32</t>
   </si>
   <si>
     <t>0.22uF/25V</t>
   </si>
   <si>
-    <t>C19, C20, C21, C22</t>
+    <t>C41, C42, C43, C44</t>
   </si>
   <si>
     <t>39nF/25V</t>
   </si>
   <si>
-    <t>C31, C35</t>
+    <t>C53, C57</t>
+  </si>
+  <si>
+    <t>22nF/25V</t>
+  </si>
+  <si>
+    <t>C74</t>
+  </si>
+  <si>
+    <t>6.8nF/25V</t>
+  </si>
+  <si>
+    <t>C77, C80</t>
   </si>
   <si>
     <t>18pF/25V</t>
   </si>
   <si>
-    <t>C56, C57</t>
-  </si>
-  <si>
-    <t>22nF/25V</t>
-  </si>
-  <si>
-    <t>C59</t>
-  </si>
-  <si>
-    <t>6.8nF/25V</t>
-  </si>
-  <si>
-    <t>C60, C61</t>
-  </si>
-  <si>
-    <t>20pF/25V</t>
-  </si>
-  <si>
-    <t>C62, C63</t>
-  </si>
-  <si>
-    <t>4.3pF/25V</t>
-  </si>
-  <si>
-    <t>C64, C65</t>
+    <t>C81, C82</t>
   </si>
   <si>
     <t>KF2EDGKRH-3.5-2*10P</t>
@@ -133,6 +190,19 @@
     <t>CONN-TH_20P-P3.50_KEFA_KF2EDGKRH-3.5-2X10P</t>
   </si>
   <si>
+    <t>KF2EDGR-3.5-2P</t>
+  </si>
+  <si>
+    <t>3.5mm 排数:1 每排P数:2 弯针_x000D_
+插拔式接线端子</t>
+  </si>
+  <si>
+    <t>CN2</t>
+  </si>
+  <si>
+    <t>CONN-TH_P3.50_KF2EDGR-3.5-2P</t>
+  </si>
+  <si>
     <t>KF2EDGKRH-3.5-2*7P</t>
   </si>
   <si>
@@ -140,25 +210,12 @@
 插拔式接线端子</t>
   </si>
   <si>
-    <t>CN2</t>
+    <t>CN3</t>
   </si>
   <si>
     <t>CONN-TH_14P-P3.50_KEFA_KF2EDGKRH-3.5-2X7P</t>
   </si>
   <si>
-    <t>KF2EDGR-3.5-2P</t>
-  </si>
-  <si>
-    <t>3.5mm 排数:1 每排P数:2 弯针_x000D_
-插拔式接线端子</t>
-  </si>
-  <si>
-    <t>CN3</t>
-  </si>
-  <si>
-    <t>CONN-TH_P3.50_KF2EDGR-3.5-2P</t>
-  </si>
-  <si>
     <t>BS-12-B2AA002</t>
   </si>
   <si>
@@ -183,7 +240,7 @@
     <t>SOD-323</t>
   </si>
   <si>
-    <t>SS36</t>
+    <t>SS510</t>
   </si>
   <si>
     <t>肖特基二极管</t>
@@ -192,7 +249,7 @@
     <t>D3, D4, D5</t>
   </si>
   <si>
-    <t>SMC</t>
+    <t>SMA</t>
   </si>
   <si>
     <t>1N4148W</t>
@@ -204,6 +261,30 @@
     <t>SOD-123</t>
   </si>
   <si>
+    <t>PESD2CAN</t>
+  </si>
+  <si>
+    <t>D9</t>
+  </si>
+  <si>
+    <t>SOT23-3N</t>
+  </si>
+  <si>
+    <t>SM712</t>
+  </si>
+  <si>
+    <t>D10</t>
+  </si>
+  <si>
+    <t>SM15C</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>D11, D12</t>
+  </si>
+  <si>
     <t>SMF11CA</t>
   </si>
   <si>
@@ -216,40 +297,22 @@
     <t>SOD-123F</t>
   </si>
   <si>
-    <t>100uF/10V</t>
+    <t>68uF/10V</t>
   </si>
   <si>
     <t>贴片钽电容</t>
   </si>
   <si>
-    <t>E1, E3</t>
+    <t>E1</t>
   </si>
   <si>
     <t>CD B(3528)</t>
   </si>
   <si>
-    <t>100uF/63V</t>
-  </si>
-  <si>
-    <t>贴片电解电容</t>
-  </si>
-  <si>
-    <t>E2, E4, E5, E6</t>
-  </si>
-  <si>
-    <t>CM F(10*10.2)</t>
-  </si>
-  <si>
-    <t>LM2576HVS-ADJ</t>
-  </si>
-  <si>
-    <t>DC降压芯片</t>
-  </si>
-  <si>
-    <t>IC1, IC2, IC3</t>
-  </si>
-  <si>
-    <t>TO263-5A</t>
+    <t>47uF/16V</t>
+  </si>
+  <si>
+    <t>E2, E3</t>
   </si>
   <si>
     <t>HDR-1X3</t>
@@ -267,25 +330,28 @@
     <t>HF49FD/012-1H11</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>K1, K2, K3</t>
   </si>
   <si>
     <t>RELAY-TH_HF49FD-XXX-1H11-XXX</t>
   </si>
   <si>
+    <t>15uH 4A</t>
+  </si>
+  <si>
+    <t>一体成型电感</t>
+  </si>
+  <si>
+    <t>L1, L2</t>
+  </si>
+  <si>
+    <t>L-SMD-1040</t>
+  </si>
+  <si>
     <t>33uH 4A</t>
   </si>
   <si>
-    <t>功率屏蔽电感</t>
-  </si>
-  <si>
-    <t>L1, L2, L3</t>
-  </si>
-  <si>
-    <t>L-SMD-1040</t>
+    <t>L3</t>
   </si>
   <si>
     <t>120R 100MHz 1100mA</t>
@@ -321,9 +387,6 @@
     <t>Q3, Q4, Q5</t>
   </si>
   <si>
-    <t>SOT23-3N</t>
-  </si>
-  <si>
     <t>10K(1%)(NC)</t>
   </si>
   <si>
@@ -339,121 +402,169 @@
     <t>10K(1%)</t>
   </si>
   <si>
-    <t>R2, R45, R51, R59, R62, R73, R74, R75, R76, R77</t>
-  </si>
-  <si>
-    <t>3.05K(1%)</t>
-  </si>
-  <si>
-    <t>R3</t>
+    <t>R2, R3, R4, R53, R59, R67, R70, R81, R82, R83</t>
+  </si>
+  <si>
+    <t>60.4K(1%)</t>
+  </si>
+  <si>
+    <t>R5</t>
+  </si>
+  <si>
+    <t>274K(1%)</t>
+  </si>
+  <si>
+    <t>R6</t>
+  </si>
+  <si>
+    <t>23.7K(1%)</t>
+  </si>
+  <si>
+    <t>R7</t>
+  </si>
+  <si>
+    <t>11.5K(1%)</t>
+  </si>
+  <si>
+    <t>R8</t>
+  </si>
+  <si>
+    <t>71.5K(1%)</t>
+  </si>
+  <si>
+    <t>R9</t>
+  </si>
+  <si>
+    <t>249K(1%)</t>
+  </si>
+  <si>
+    <t>R10, R14</t>
+  </si>
+  <si>
+    <t>18.7K(1%)</t>
+  </si>
+  <si>
+    <t>R11</t>
+  </si>
+  <si>
+    <t>11K(1%)</t>
+  </si>
+  <si>
+    <t>R12</t>
+  </si>
+  <si>
+    <t>147K(1%)</t>
+  </si>
+  <si>
+    <t>R13</t>
+  </si>
+  <si>
+    <t>44.2K(1%)</t>
+  </si>
+  <si>
+    <t>R15</t>
+  </si>
+  <si>
+    <t>10.5K(1%)</t>
+  </si>
+  <si>
+    <t>R16</t>
   </si>
   <si>
     <t>1K(1%)</t>
   </si>
   <si>
-    <t>R4, R6, R8, R9, R14, R15, R20, R21, R26, R27, R32, R67, R68, R69, R70, R71, R72</t>
-  </si>
-  <si>
-    <t>3.9K(1%)</t>
-  </si>
-  <si>
-    <t>R5</t>
-  </si>
-  <si>
-    <t>8.66K(1%)</t>
-  </si>
-  <si>
-    <t>R7</t>
+    <t>R17, R22, R23, R28, R29, R34, R35, R40, R75, R76, R77, R78, R79, R80</t>
   </si>
   <si>
     <t>2.4K(1%)</t>
   </si>
   <si>
-    <t>R10, R11, R16, R17, R22, R23, R28, R29</t>
+    <t>R18, R19, R24, R25, R30, R31, R36, R37</t>
   </si>
   <si>
     <t>330R</t>
   </si>
   <si>
-    <t>R12, R13, R18, R19, R24, R25, R30, R31</t>
+    <t>R20, R21, R26, R27, R32, R33, R38, R39</t>
   </si>
   <si>
     <t>100K(1%)</t>
   </si>
   <si>
-    <t>R33, R36, R39, R42</t>
+    <t>R41, R44, R47, R50</t>
   </si>
   <si>
     <t>250R(1%)(NC)</t>
   </si>
   <si>
-    <t>R34, R37</t>
+    <t>R42, R45</t>
   </si>
   <si>
     <t>40.2K(1%)</t>
   </si>
   <si>
-    <t>R35, R38, R41, R44</t>
+    <t>R43, R46, R49, R52</t>
   </si>
   <si>
     <t>250R(1%)</t>
   </si>
   <si>
-    <t>R40, R43, R48, R54</t>
+    <t>R48, R51, R56, R62</t>
   </si>
   <si>
     <t>1M(1%)</t>
   </si>
   <si>
-    <t>R46, R47, R49, R50, R52, R53, R55, R56, R79</t>
+    <t>R54, R55, R57, R58, R60, R61, R63, R64, R92</t>
   </si>
   <si>
     <t>100R</t>
   </si>
   <si>
-    <t>R57, R58, R60, R61</t>
+    <t>R65, R66, R68, R69</t>
   </si>
   <si>
     <t>120R</t>
   </si>
   <si>
-    <t>R63</t>
+    <t>R71</t>
   </si>
   <si>
     <t>4.7K</t>
   </si>
   <si>
-    <t>R64, R66</t>
+    <t>R72, R74</t>
   </si>
   <si>
     <t>120R(NC)</t>
   </si>
   <si>
-    <t>R65</t>
+    <t>R73</t>
   </si>
   <si>
     <t>12.4K(1%)</t>
   </si>
   <si>
-    <t>R78</t>
+    <t>R84</t>
   </si>
   <si>
     <t>49.9R(1%)</t>
   </si>
   <si>
-    <t>R80, R81, R82, R83</t>
+    <t>R85, R86, R87, R88</t>
   </si>
   <si>
     <t>10R(1%)</t>
   </si>
   <si>
-    <t>R84</t>
+    <t>R89</t>
   </si>
   <si>
     <t>470R</t>
   </si>
   <si>
-    <t>R85, R86</t>
+    <t>R90, R91</t>
   </si>
   <si>
     <t>HR911105A</t>
@@ -477,13 +588,34 @@
     <t>LQFP64 10x10_N</t>
   </si>
   <si>
+    <t>GD25Q16CTIG</t>
+  </si>
+  <si>
+    <t>spi flash</t>
+  </si>
+  <si>
+    <t>U2</t>
+  </si>
+  <si>
+    <t>SOP-8</t>
+  </si>
+  <si>
+    <t>TPS54360DDAR</t>
+  </si>
+  <si>
+    <t>U3, U4, U5</t>
+  </si>
+  <si>
+    <t>SOP-8EP</t>
+  </si>
+  <si>
     <t>LM324DR</t>
   </si>
   <si>
     <t>Quadruple Operational Amplifier</t>
   </si>
   <si>
-    <t>U2, U3, U4</t>
+    <t>U6, U7, U8</t>
   </si>
   <si>
     <t>D014_N</t>
@@ -492,7 +624,7 @@
     <t>GP8102S-TC50-EW</t>
   </si>
   <si>
-    <t>U5, U7</t>
+    <t>U9, U11</t>
   </si>
   <si>
     <t>ESOP8_N</t>
@@ -501,7 +633,7 @@
     <t>LM321</t>
   </si>
   <si>
-    <t>U6, U8</t>
+    <t>U10, U12</t>
   </si>
   <si>
     <t>SOT23-5N</t>
@@ -510,13 +642,13 @@
     <t>UCC27517ADBVR</t>
   </si>
   <si>
-    <t>U9, U10</t>
+    <t>U13, U14</t>
   </si>
   <si>
     <t>SP3232EEY-L/TR</t>
   </si>
   <si>
-    <t>U12</t>
+    <t>U15</t>
   </si>
   <si>
     <t>TSSOP16_N</t>
@@ -525,31 +657,19 @@
     <t>TJA1050T/CM,118</t>
   </si>
   <si>
-    <t>U13</t>
-  </si>
-  <si>
-    <t>SOP-8</t>
+    <t>U16</t>
   </si>
   <si>
     <t>MAX3485ESA</t>
   </si>
   <si>
-    <t>U14</t>
-  </si>
-  <si>
-    <t>GD25Q16CTIG</t>
-  </si>
-  <si>
-    <t>spi flash</t>
-  </si>
-  <si>
-    <t>U15</t>
+    <t>U17</t>
   </si>
   <si>
     <t>W5500</t>
   </si>
   <si>
-    <t>U16</t>
+    <t>U18</t>
   </si>
   <si>
     <t>LQFP48 7X7_N</t>
@@ -974,7 +1094,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E67"/>
+  <dimension ref="A1:E88"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1014,7 +1134,7 @@
         <v>8</v>
       </c>
       <c r="E2" s="1">
-        <v>22</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1048,7 +1168,7 @@
         <v>8</v>
       </c>
       <c r="E4" s="1">
-        <v>7</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1065,7 +1185,7 @@
         <v>8</v>
       </c>
       <c r="E5" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1082,7 +1202,7 @@
         <v>8</v>
       </c>
       <c r="E6" s="1">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1099,7 +1219,7 @@
         <v>8</v>
       </c>
       <c r="E7" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1116,7 +1236,7 @@
         <v>8</v>
       </c>
       <c r="E8" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1133,7 +1253,7 @@
         <v>8</v>
       </c>
       <c r="E9" s="1">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1150,7 +1270,7 @@
         <v>8</v>
       </c>
       <c r="E10" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1164,109 +1284,109 @@
         <v>26</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="E11" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E12" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E13" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E14" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B15" s="3" t="s">
         <v>34</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>35</v>
       </c>
       <c r="D15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E15" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="27">
-      <c r="A16" s="2" t="s">
+      <c r="B16" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="D16" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="B17" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D16" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E16" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="40.5">
-      <c r="A17" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="D17" s="2" t="s">
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="E17" s="1">
         <v>1</v>
@@ -1274,16 +1394,16 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="2" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>46</v>
+        <v>6</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>48</v>
+        <v>8</v>
       </c>
       <c r="E18" s="1">
         <v>1</v>
@@ -1291,237 +1411,233 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="2" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>52</v>
+        <v>8</v>
       </c>
       <c r="E19" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="2" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>54</v>
+        <v>6</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>56</v>
+        <v>8</v>
       </c>
       <c r="E20" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="2" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>59</v>
+        <v>8</v>
       </c>
       <c r="E21" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="2" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>61</v>
+        <v>6</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>63</v>
+        <v>8</v>
       </c>
       <c r="E22" s="1">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="2" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>65</v>
+        <v>6</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>67</v>
+        <v>8</v>
       </c>
       <c r="E23" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" ht="27">
       <c r="A24" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>69</v>
+        <v>52</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="E24" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="40.5">
       <c r="A25" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>73</v>
+        <v>56</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>57</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="E25" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="27">
       <c r="A26" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>77</v>
+        <v>60</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>61</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="E26" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="2" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="E27" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="2" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="E28" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="2" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="E29" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="2" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>93</v>
+        <v>69</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="E30" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>97</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="B31" s="1"/>
       <c r="C31" s="2" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="E31" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>101</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="B32" s="1"/>
       <c r="C32" s="2" t="s">
-        <v>102</v>
+        <v>83</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>103</v>
+        <v>81</v>
       </c>
       <c r="E32" s="1">
         <v>1</v>
@@ -1529,237 +1645,237 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="2" t="s">
-        <v>104</v>
+        <v>84</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>103</v>
+        <v>81</v>
       </c>
       <c r="E33" s="1">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="2" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="E34" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="2" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="E35" s="1">
-        <v>17</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="2" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="E36" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="2" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E37" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="2" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>103</v>
       </c>
       <c r="E38" s="1">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="2" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E39" s="1">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="2" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E40" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="2" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="E41" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="2" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>103</v>
+        <v>117</v>
       </c>
       <c r="E42" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="2" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>101</v>
+        <v>119</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>103</v>
+        <v>81</v>
       </c>
       <c r="E43" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="2" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>101</v>
+        <v>122</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>103</v>
+        <v>124</v>
       </c>
       <c r="E44" s="1">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>101</v>
+        <v>122</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>103</v>
+        <v>124</v>
       </c>
       <c r="E45" s="1">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>101</v>
+        <v>122</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>103</v>
+        <v>124</v>
       </c>
       <c r="E46" s="1">
         <v>1</v>
@@ -1767,33 +1883,33 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>101</v>
+        <v>122</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>103</v>
+        <v>124</v>
       </c>
       <c r="E47" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>101</v>
+        <v>122</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>103</v>
+        <v>124</v>
       </c>
       <c r="E48" s="1">
         <v>1</v>
@@ -1801,16 +1917,16 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>101</v>
+        <v>122</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>103</v>
+        <v>124</v>
       </c>
       <c r="E49" s="1">
         <v>1</v>
@@ -1818,67 +1934,67 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>101</v>
+        <v>122</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>103</v>
+        <v>124</v>
       </c>
       <c r="E50" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>101</v>
+        <v>122</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>103</v>
+        <v>124</v>
       </c>
       <c r="E51" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>101</v>
+        <v>122</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>103</v>
+        <v>124</v>
       </c>
       <c r="E52" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="2" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>145</v>
+        <v>122</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>147</v>
+        <v>124</v>
       </c>
       <c r="E53" s="1">
         <v>1</v>
@@ -1886,14 +2002,16 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="B54" s="1"/>
+        <v>143</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>122</v>
+      </c>
       <c r="C54" s="2" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>150</v>
+        <v>124</v>
       </c>
       <c r="E54" s="1">
         <v>1</v>
@@ -1901,195 +2019,203 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="2" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>152</v>
+        <v>122</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>154</v>
+        <v>124</v>
       </c>
       <c r="E55" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="2" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>155</v>
+        <v>122</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>157</v>
+        <v>124</v>
       </c>
       <c r="E56" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="2" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>81</v>
+        <v>122</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>160</v>
+        <v>124</v>
       </c>
       <c r="E57" s="1">
-        <v>2</v>
+        <v>14</v>
       </c>
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="2" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>81</v>
+        <v>122</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>160</v>
+        <v>124</v>
       </c>
       <c r="E58" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="B59" s="1"/>
+        <v>153</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>122</v>
+      </c>
       <c r="C59" s="2" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>165</v>
+        <v>124</v>
       </c>
       <c r="E59" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="B60" s="1"/>
+        <v>155</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>122</v>
+      </c>
       <c r="C60" s="2" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>168</v>
+        <v>124</v>
       </c>
       <c r="E60" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="B61" s="1"/>
+        <v>157</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>122</v>
+      </c>
       <c r="C61" s="2" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>168</v>
+        <v>124</v>
       </c>
       <c r="E61" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="2" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>172</v>
+        <v>122</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>173</v>
+        <v>160</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>168</v>
+        <v>124</v>
       </c>
       <c r="E62" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="B63" s="1"/>
+        <v>161</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>122</v>
+      </c>
       <c r="C63" s="2" t="s">
-        <v>175</v>
+        <v>162</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>176</v>
+        <v>124</v>
       </c>
       <c r="E63" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="2" t="s">
-        <v>177</v>
+        <v>163</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>178</v>
+        <v>122</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>179</v>
+        <v>164</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>180</v>
+        <v>124</v>
       </c>
       <c r="E64" s="1">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="2" t="s">
-        <v>181</v>
+        <v>165</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>182</v>
+        <v>122</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>183</v>
+        <v>166</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>184</v>
+        <v>124</v>
       </c>
       <c r="E65" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="2" t="s">
-        <v>185</v>
+        <v>167</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>186</v>
+        <v>122</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>188</v>
+        <v>124</v>
       </c>
       <c r="E66" s="1">
         <v>1</v>
@@ -2097,18 +2223,365 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E67" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E68" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E69" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E70" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E71" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E72" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="E73" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B74" s="1"/>
+      <c r="C74" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="E74" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="B75" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="B67" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="C67" s="2" t="s">
+      <c r="C75" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="D67" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="E67" s="1">
+      <c r="D75" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="E75" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="E76" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="E77" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="E78" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="E79" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="E80" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="B81" s="1"/>
+      <c r="C81" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="E81" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="B82" s="1"/>
+      <c r="C82" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="E82" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="B83" s="1"/>
+      <c r="C83" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="E83" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="B84" s="1"/>
+      <c r="C84" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="E84" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="E85" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="E86" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="E87" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="E88" s="1">
         <v>1</v>
       </c>
     </row>

--- a/hardware/Project Outputs for MICB/MICB.xlsx
+++ b/hardware/Project Outputs for MICB/MICB.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="45" windowWidth="37695" windowHeight="15435"/>
+    <workbookView windowWidth="29670" windowHeight="11940"/>
   </bookViews>
   <sheets>
     <sheet name="MICB" sheetId="1" r:id="rId1"/>
@@ -14,12 +14,12 @@
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">MICB!$1:$1</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="225">
   <si>
     <t>Comment</t>
   </si>
@@ -180,7 +180,7 @@
     <t>KF2EDGKRH-3.5-2*10P</t>
   </si>
   <si>
-    <t>20P 间距P=3.5mm_x000D_
+    <t>20P 间距P=3.5mm
 插拔式接线端子</t>
   </si>
   <si>
@@ -193,7 +193,7 @@
     <t>KF2EDGR-3.5-2P</t>
   </si>
   <si>
-    <t>3.5mm 排数:1 每排P数:2 弯针_x000D_
+    <t>3.5mm 排数:1 每排P数:2 弯针
 插拔式接线端子</t>
   </si>
   <si>
@@ -206,7 +206,7 @@
     <t>KF2EDGKRH-3.5-2*7P</t>
   </si>
   <si>
-    <t>14P 间距P=3.5mm_x000D_
+    <t>14P 间距P=3.5mm
 插拔式接线端子</t>
   </si>
   <si>
@@ -387,24 +387,18 @@
     <t>Q3, Q4, Q5</t>
   </si>
   <si>
-    <t>10K(1%)(NC)</t>
+    <t>10K(1%)</t>
   </si>
   <si>
     <t>贴片电阻</t>
   </si>
   <si>
-    <t>R1</t>
+    <t>R2, R3, R4, R53, R59, R67, R70, R81, R82, R83</t>
   </si>
   <si>
     <t>R 0603_L</t>
   </si>
   <si>
-    <t>10K(1%)</t>
-  </si>
-  <si>
-    <t>R2, R3, R4, R53, R59, R67, R70, R81, R82, R83</t>
-  </si>
-  <si>
     <t>60.4K(1%)</t>
   </si>
   <si>
@@ -495,12 +489,6 @@
     <t>R41, R44, R47, R50</t>
   </si>
   <si>
-    <t>250R(1%)(NC)</t>
-  </si>
-  <si>
-    <t>R42, R45</t>
-  </si>
-  <si>
     <t>40.2K(1%)</t>
   </si>
   <si>
@@ -535,12 +523,6 @@
   </si>
   <si>
     <t>R72, R74</t>
-  </si>
-  <si>
-    <t>120R(NC)</t>
-  </si>
-  <si>
-    <t>R73</t>
   </si>
   <si>
     <t>12.4K(1%)</t>
@@ -721,24 +703,173 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -751,8 +882,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -762,50 +1079,347 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" quotePrefix="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1088,1532 +1702,1489 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E88"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E85"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F66" sqref="F66"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="5" width="17.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="5" customFormat="1">
-      <c r="A1" s="4" t="s">
+    <row r="1" s="1" customFormat="1" spans="1:5">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="4" t="s">
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="3">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="3">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="3">
         <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="3">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="3">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="3">
         <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="3">
         <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9" s="3">
         <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10" s="3">
         <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11" s="3">
         <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E13" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E14" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E15" s="1">
+      <c r="E15" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D16" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E16" s="1">
+      <c r="E16" s="3">
         <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D17" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E17" s="1">
+      <c r="E17" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D18" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E18" s="1">
+      <c r="E18" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D19" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E19" s="1">
+      <c r="E19" s="3">
         <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D20" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E20" s="1">
+      <c r="E20" s="3">
         <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D21" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E21" s="1">
+      <c r="E21" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="D22" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E22" s="1">
+      <c r="E22" s="3">
         <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="2" t="s">
+      <c r="A23" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="D23" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E23" s="1">
+      <c r="E23" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="27">
-      <c r="A24" s="2" t="s">
+    <row r="24" ht="27" spans="1:5">
+      <c r="A24" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C24" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="D24" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="E24" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="40.5">
-      <c r="A25" s="2" t="s">
+      <c r="E24" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" ht="40.5" spans="1:5">
+      <c r="A25" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C25" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="D25" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="E25" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="27">
-      <c r="A26" s="2" t="s">
+      <c r="E25" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" ht="27" spans="1:5">
+      <c r="A26" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C26" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="D26" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="E26" s="1">
+      <c r="E26" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="2" t="s">
+      <c r="A27" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C27" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="D27" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="E27" s="1">
+      <c r="E27" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="2" t="s">
+      <c r="A28" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C28" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="D28" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="E28" s="1">
+      <c r="E28" s="3">
         <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="2" t="s">
+      <c r="A29" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C29" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="D29" s="2" t="s">
+      <c r="D29" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="E29" s="1">
+      <c r="E29" s="3">
         <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="2" t="s">
+      <c r="A30" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B30" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C30" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="D30" s="2" t="s">
+      <c r="D30" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="E30" s="1">
+      <c r="E30" s="3">
         <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="2" t="s">
+      <c r="A31" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="B31" s="1"/>
-      <c r="C31" s="2" t="s">
+      <c r="B31" s="3"/>
+      <c r="C31" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="D31" s="2" t="s">
+      <c r="D31" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="E31" s="1">
+      <c r="E31" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32" s="2" t="s">
+      <c r="A32" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="B32" s="1"/>
-      <c r="C32" s="2" t="s">
+      <c r="B32" s="3"/>
+      <c r="C32" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="D32" s="2" t="s">
+      <c r="D32" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="E32" s="1">
+      <c r="E32" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="2" t="s">
+      <c r="A33" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B33" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="C33" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="D33" s="2" t="s">
+      <c r="D33" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="E33" s="1">
+      <c r="E33" s="3">
         <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="2" t="s">
+      <c r="A34" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B34" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="C34" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="D34" s="2" t="s">
+      <c r="D34" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="E34" s="1">
+      <c r="E34" s="3">
         <v>10</v>
       </c>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" s="2" t="s">
+      <c r="A35" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="B35" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="C35" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="D35" s="2" t="s">
+      <c r="D35" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="E35" s="1">
+      <c r="E35" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:5">
-      <c r="A36" s="2" t="s">
+      <c r="A36" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B36" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="C36" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="D36" s="2" t="s">
+      <c r="D36" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="E36" s="1">
+      <c r="E36" s="3">
         <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37" s="2" t="s">
+      <c r="A37" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="B37" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="C37" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="D37" s="2" t="s">
+      <c r="D37" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="E37" s="1">
+      <c r="E37" s="3">
         <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="2" t="s">
+      <c r="A38" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="B38" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="C38" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="D38" s="2" t="s">
+      <c r="D38" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="E38" s="1">
+      <c r="E38" s="3">
         <v>3</v>
       </c>
     </row>
     <row r="39" spans="1:5">
-      <c r="A39" s="2" t="s">
+      <c r="A39" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="B39" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="C39" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="D39" s="2" t="s">
+      <c r="D39" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="E39" s="1">
+      <c r="E39" s="3">
         <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:5">
-      <c r="A40" s="2" t="s">
+      <c r="A40" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="B40" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="C40" s="2" t="s">
+      <c r="C40" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="D40" s="2" t="s">
+      <c r="D40" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="E40" s="1">
+      <c r="E40" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:5">
-      <c r="A41" s="2" t="s">
+      <c r="A41" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="B41" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="C41" s="2" t="s">
+      <c r="C41" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="D41" s="2" t="s">
+      <c r="D41" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="E41" s="1">
+      <c r="E41" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:5">
-      <c r="A42" s="2" t="s">
+      <c r="A42" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="B42" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="C42" s="2" t="s">
+      <c r="C42" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="D42" s="2" t="s">
+      <c r="D42" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="E42" s="1">
+      <c r="E42" s="3">
         <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:5">
-      <c r="A43" s="2" t="s">
+      <c r="A43" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="B43" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="C43" s="2" t="s">
+      <c r="C43" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="D43" s="2" t="s">
+      <c r="D43" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="E43" s="1">
+      <c r="E43" s="3">
         <v>3</v>
       </c>
     </row>
     <row r="44" spans="1:5">
-      <c r="A44" s="2" t="s">
+      <c r="A44" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="B44" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="C44" s="2" t="s">
+      <c r="C44" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="D44" s="2" t="s">
+      <c r="D44" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="E44" s="1">
-        <v>1</v>
+      <c r="E44" s="3">
+        <v>10</v>
       </c>
     </row>
     <row r="45" spans="1:5">
-      <c r="A45" s="2" t="s">
+      <c r="A45" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="B45" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="C45" s="2" t="s">
+      <c r="C45" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="D45" s="2" t="s">
+      <c r="D45" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="E45" s="1">
-        <v>10</v>
+      <c r="E45" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:5">
-      <c r="A46" s="2" t="s">
+      <c r="A46" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="B46" s="2" t="s">
+      <c r="B46" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="C46" s="2" t="s">
+      <c r="C46" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="D46" s="2" t="s">
+      <c r="D46" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="E46" s="1">
+      <c r="E46" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:5">
-      <c r="A47" s="2" t="s">
+      <c r="A47" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="B47" s="2" t="s">
+      <c r="B47" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="C47" s="2" t="s">
+      <c r="C47" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="D47" s="2" t="s">
+      <c r="D47" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="E47" s="1">
+      <c r="E47" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:5">
-      <c r="A48" s="2" t="s">
+      <c r="A48" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="B48" s="2" t="s">
+      <c r="B48" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="C48" s="2" t="s">
+      <c r="C48" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="D48" s="2" t="s">
+      <c r="D48" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="E48" s="1">
+      <c r="E48" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:5">
-      <c r="A49" s="2" t="s">
+      <c r="A49" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="B49" s="2" t="s">
+      <c r="B49" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="C49" s="2" t="s">
+      <c r="C49" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="D49" s="2" t="s">
+      <c r="D49" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="E49" s="1">
+      <c r="E49" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:5">
-      <c r="A50" s="2" t="s">
+      <c r="A50" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="B50" s="2" t="s">
+      <c r="B50" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="C50" s="2" t="s">
+      <c r="C50" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="D50" s="2" t="s">
+      <c r="D50" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="E50" s="1">
-        <v>1</v>
+      <c r="E50" s="3">
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:5">
-      <c r="A51" s="2" t="s">
+      <c r="A51" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="B51" s="2" t="s">
+      <c r="B51" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="C51" s="2" t="s">
+      <c r="C51" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="D51" s="2" t="s">
+      <c r="D51" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="E51" s="1">
+      <c r="E51" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="E52" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="E53" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="E54" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="E55" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="E56" s="3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="E57" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="E58" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="E59" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="E60" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="D61" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="E61" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="D62" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="E62" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="E63" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="D64" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="E64" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="D65" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="E65" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:5">
-      <c r="A52" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="B52" s="2" t="s">
+    <row r="66" spans="1:5">
+      <c r="A66" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="B66" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="C52" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="D52" s="2" t="s">
+      <c r="C66" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="D66" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="E52" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
-      <c r="A53" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="B53" s="2" t="s">
+      <c r="E66" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="B67" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="C53" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="D53" s="2" t="s">
+      <c r="C67" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="D67" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="E53" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
-      <c r="A54" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="B54" s="2" t="s">
+      <c r="E67" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="B68" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="C54" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="D54" s="2" t="s">
+      <c r="C68" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="D68" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="E54" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
-      <c r="A55" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="B55" s="2" t="s">
+      <c r="E68" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="B69" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="C55" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="D55" s="2" t="s">
+      <c r="C69" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="D69" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="E55" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
-      <c r="A56" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="E56" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
-      <c r="A57" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="E57" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
-      <c r="A58" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="E58" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
-      <c r="A59" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="E59" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
-      <c r="A60" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="E60" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
-      <c r="A61" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="E61" s="1">
+      <c r="E69" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:5">
-      <c r="A62" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="E62" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5">
-      <c r="A63" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="E63" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
-      <c r="A64" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="E64" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
-      <c r="A65" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="E65" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
-      <c r="A66" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="E66" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
-      <c r="A67" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="E67" s="1">
+    <row r="70" spans="1:5">
+      <c r="A70" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="D70" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="E70" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="B71" s="3"/>
+      <c r="C71" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="D71" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="E71" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="C72" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="D72" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="E72" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="B73" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C73" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="D73" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="E73" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="B74" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="C74" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="D74" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="E74" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="B75" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="C75" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="D75" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="E75" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="1:5">
-      <c r="A68" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="E68" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
-      <c r="A69" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="E69" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
-      <c r="A70" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="E70" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5">
-      <c r="A71" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="E71" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
-      <c r="A72" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="E72" s="1">
+    <row r="76" spans="1:5">
+      <c r="A76" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="B76" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C76" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="D76" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="E76" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="73" spans="1:5">
-      <c r="A73" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="E73" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
-      <c r="A74" s="2" t="s">
+    <row r="77" spans="1:5">
+      <c r="A77" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="B77" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C77" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="D77" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="E77" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="B78" s="3"/>
+      <c r="C78" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="D78" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="E78" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="B79" s="3"/>
+      <c r="C79" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="D79" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="B74" s="1"/>
-      <c r="C74" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="E74" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
-      <c r="A75" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="B75" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="E75" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
-      <c r="A76" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="B76" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="D76" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="E76" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
-      <c r="A77" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="B77" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="E77" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
-      <c r="A78" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="B78" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="C78" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="E78" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
-      <c r="A79" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="B79" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C79" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="D79" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="E79" s="1">
-        <v>2</v>
+      <c r="E79" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:5">
-      <c r="A80" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="B80" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C80" s="2" t="s">
+      <c r="A80" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="D80" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="E80" s="1">
-        <v>2</v>
+      <c r="B80" s="3"/>
+      <c r="C80" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="D80" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="E80" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:5">
-      <c r="A81" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="B81" s="1"/>
-      <c r="C81" s="2" t="s">
+      <c r="A81" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="D81" s="2" t="s">
+      <c r="B81" s="3"/>
+      <c r="C81" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="E81" s="1">
+      <c r="D81" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="E81" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:5">
-      <c r="A82" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="B82" s="1"/>
-      <c r="C82" s="2" t="s">
+      <c r="A82" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="D82" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="E82" s="1">
+      <c r="B82" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="C82" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="D82" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="E82" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:5">
-      <c r="A83" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="B83" s="1"/>
-      <c r="C83" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="D83" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="E83" s="1">
+      <c r="A83" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="B83" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="C83" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="D83" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="E83" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:5">
-      <c r="A84" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="B84" s="1"/>
-      <c r="C84" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="D84" s="2" t="s">
+      <c r="A84" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="B84" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="C84" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="D84" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="E84" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="B85" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="E84" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5">
-      <c r="A85" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="B85" s="2" t="s">
+      <c r="C85" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="D85" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="C85" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="D85" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="E85" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
-      <c r="A86" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="B86" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="D86" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="E86" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
-      <c r="A87" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="B87" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="C87" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="D87" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="E87" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
-      <c r="A88" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="B88" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="C88" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="D88" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="E88" s="1">
+      <c r="E85" s="3">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>